--- a/pred_ohlcv/54_21/2019-10-21 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-133.8926240000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -626,7 +626,7 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>20.77117599999992</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-32.77882400000009</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-32.49882400000008</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-32.85882400000008</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-33.38882400000008</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11.58492400000009</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6.90762400000009</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6.50762400000009</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-32.62962400000009</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>87.28747599999991</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>55.29747599999992</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>38.65397599999991</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>126.4649759999999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>125.0719759999999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>208.3250759999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>208.3250759999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>206.5470759999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>181.851376</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>181.851376</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>284.916976</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>284.916976</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>321.804476</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>322.310176</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>422.3339577</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>218.9022577</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>217.3682577</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>217.3682577</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>217.3682577</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>339.9843577</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>334.5612577</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>334.5612577</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>245.0169577</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>245.3569577</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>245.3569577</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>239.3769577</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>240.2169577</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>240.2169577</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>240.2169577</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>240.0664577</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>241.8380577</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>241.8380577</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>219.7291577</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>220.9296577</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>223.6116577</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>220.7910577</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>307.6557577</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>310.3052577</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>236.2895577</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>236.2895577</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>236.2895577</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>282.5510449500001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>282.3810449500001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>269.1294449500001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>236.6290449500001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>242.1272449500001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>250.2762449500001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>247.6320449500001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>233.5029449500001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>248.5020449500001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>226.0139449500001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>225.8519449500001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>146.3524449500001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>71.94394495000006</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>68.92914495000007</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>22.87534495000007</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>21.07534495000007</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>76.70518135000006</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>76.70518135000006</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>76.70518135000006</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>102.8985813500001</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>109.0212813500001</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>127.92128135</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>257.08578135</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>299.7460813500001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>299.7460813500001</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>6.56571962000016</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>10.47761962000016</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>10.80761962000016</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>3.83291962000016</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>9.843819620000161</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>30.54381962000016</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>30.54381962000016</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>30.88381962000016</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-3.845780379999837</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4.513019620000163</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1.775019620000163</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>0.1560196200001631</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>0.1560196200001631</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-0.2489803799998369</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>31.98101962000016</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>0.8430196200001596</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>0.8430196200001596</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>15.14301962000016</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>15.71301962000016</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>15.71301962000016</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-494.5411803799998</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-492.8840803799998</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>121.3586196200002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>143.5808196200002</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3049.423385770001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>2335.30928577</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3513.05281203</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>2593.64332217</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2469.75092217</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2914.83202217</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>2328.60374372</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>2728.27660262</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>2371.01480262</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2236.71180262</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2140.20820262</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2101.07490262</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2049.68710262</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1656.24207939</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1883.79815288</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BSV ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-10.49182400000008</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>13.75887599999992</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>20.77117599999992</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-25.24982400000009</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-32.77882400000009</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-32.49882400000008</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-32.85882400000008</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-33.38882400000008</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-33.15882400000009</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11.58492400000009</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11.93312400000009</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6.90762400000009</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6.50762400000009</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-32.62962400000009</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>87.28747599999991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>55.29747599999992</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>38.65397599999991</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>40.77207599999991</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>92.79137599999991</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>172.4012759999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>144.2532759999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>146.3972759999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>141.9212759999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>141.7311759999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>141.7544759999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>142.1444759999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>141.5054759999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>118.4974759999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>117.2149759999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>107.2149759999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>126.4649759999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>125.0719759999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>215.6911759999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>207.0732759999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>207.6031759999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>207.9650759999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>206.2170759999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>322.310176</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>333.962776</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>333.458476</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>333.458476</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>422.3339577</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>218.9022577</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>217.3682577</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>217.3682577</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>217.3682577</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>339.9843577</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>334.5612577</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>334.5612577</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>320.0882577</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>245.0169577</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>245.3569577</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>245.3569577</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>239.3769577</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>240.2169577</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>240.2169577</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>240.2169577</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>240.0664577</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>241.8380577</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>241.8380577</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>219.7291577</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>220.9296577</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>223.6116577</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>220.7910577</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>307.6557577</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>310.3052577</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>236.2895577</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>236.2895577</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>236.2895577</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>282.5510449500001</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>282.3810449500001</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>269.1094449500001</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>270.1294449500001</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>269.1294449500001</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>236.6290449500001</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>242.1272449500001</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>240.1462449500001</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>250.2762449500001</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>247.6320449500001</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>361.84938135</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>361.84938135</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>361.84938135</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>361.84938135</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>346.09668135</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>345.78128516</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>368.44258897</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>375.7712889700001</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>375.7712889700001</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>6.56571962000016</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>10.47761962000016</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>10.80761962000016</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>9.83291962000016</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>3.83291962000016</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-492.8840803799998</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>121.3586196200002</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>143.5808196200002</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3049.423385770001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>2335.30928577</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3513.05281203</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2469.75092217</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>2616.70172217</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>2914.83202217</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>2328.60374372</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>2728.27660262</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>2371.01480262</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2236.71180262</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2140.20820262</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2101.07490262</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2049.68710262</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
